--- a/Current_Data/Updated_Data.xlsx
+++ b/Current_Data/Updated_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirgirgis/Library/Containers/com.microsoft.Excel/Data/Desktop/College/PURA Award/Project/Current_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B45CEA-9566-A94D-A0C3-3DAE68B77B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA661FC6-9022-1442-9E31-3D31F2C0270A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{F89DAAEF-60D4-7048-966D-D0EADBD8175A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5998" uniqueCount="590">
   <si>
     <t>Date</t>
   </si>
@@ -3368,6 +3368,225 @@
   <si>
     <t>During the period of week 49 to 52 (December 2018) seven (7) districts in four (4) countries reached the alert threshold: Benin: Tanguieta district in Atacora Region reached the alert threshold in week 51. Cote d’Ivoire: Katiola district in Hambol Region reached the alert threshold in week 50 Ghana: In the Upper West Region, the districts of Jirapa (week 52); Nadowli (week 52); Sissala West (week 51) and Nadom (weeks 50, 51 and 52) reached the alert threshold. Nigeria: The LGA of Sandamu in Katsina State reached the alert threshold Countries are encouraged to strengthen case detection and notification at this end of the post epidemic season. In addition, there is a need to increase the number of lumbar puncture performed and improve laboratory confirmation, especially districts or LGAs and sub districts that crossed the alert threshold.</t>
   </si>
+  <si>
+    <t>At the first week of 2019 the district of Lawra in the Upper West Region in Ghana reached the alert threshold with an AR of 3.0. Countries are encouraged to strengthen case detection and to report data on time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At week 02 of year 2019, six (6) districts reached the alert threshold in 2 countries: Burkina Faso (1) and Ghana (5): Burkina Faso: The district of Karangasso-Vigue in the Hauts-Bassins Region reached the alert threshold with an AR of 3.5. Ghana: Five (5) districts reached the alert threshold: Banda district in Brong-Ahafo Region; Kwahu North (AR of 3.2) in the Eastern Region; Zabzugu-Tatale (AR of 9.6) in the Northern Region and the districts of Nawdoli-Kaleo (AR of 8.2) and Nadom (AR of 3.7) in the Upper West Region. Countries are encouraged to strengthen case detection and to report data on time. Additionally, investigate outbreaks and share reports.</t>
+  </si>
+  <si>
+    <t>At week 3 of year 2019, two (2) districts in Ghana reached the epidemic threshold and five (5) districts crossed the alert threshold in 3 countries: Burkina Faso (1), Ghana (3) and Chad (1).  Burkina Faso: The district of Kaya in the CentreNord Region with 16 cases reported reached the alert threshold with an AR of 3.8. Ghana: 2 districts reached the epidemic threshold: Zabzugu-Tatale in the Northern Region with an AR of 37.2 and Nadom in the Upper West with an AR of 18.6. Three (3) other districts reached the alert threshold: Jamah North (AR of 3.9) and Asutifi South (AR of 3.1) in Brong-Ahafo Region and Nawdoli-Kaleo (AR of 6.8) in the Upper West Region. Chad: The district of Goundi in the Mandoul Region with 9 cases reported reached the alert threshold with an AR of 4.3.</t>
+  </si>
+  <si>
+    <t>At week 4 of year 2019, one (1) district in Ghana reached the epidemic threshold and six (6) districts crossed the alert threshold in 2 countries: Cameroon (1) and Ghana (5). Cameroon: The district of Loum in the Littoral Region reached the alert threshold with an AR of 3.7. Ghana: The district of Nadowli in the Upper West Region reached the epidemic threshold with 12 cases and 1 death and an AR of 16.4. 5 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) which was in epidemic phase in week 3 came back to alert phase with an AR of 6.0. Lawra (Upper West Region) with an AR of 9.1; Nadom (Upper West Region) with an AR of 7.5; Jamah North (BrongAhafo Region) with an AR of 3.9 and Asutifi North (Brong-Ahafo Region) with an AR of 3.1</t>
+  </si>
+  <si>
+    <t>At week 4 of year 2019, one (1) district in Ghana reached the epidemic threshold and six (6) districts crossed the alert threshold in 2 countries: Cameroon (1) and Ghana (5). Cameroon: The district of Loum in the Littoral Region reached the alert threshold with an AR of 3.7. Ghana: The district of Nadowli in the Upper West Region reached the epidemic threshold with 12 cases and 1 death and an AR of 16.4. 5 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) which was in epidemic phase in week 3 came back to alert phase with an AR of 6.0. Lawra (Upper West Region) with an AR of 9.1; Nadom (Upper West Region) with an AR of 7.5; Jamah North (BrongAhafo Region) with an AR of 3.9 and Asutifi North (Brong-Ahafo Region) with an AR of 3.2</t>
+  </si>
+  <si>
+    <t>At week 4 of year 2019, one (1) district in Ghana reached the epidemic threshold and six (6) districts crossed the alert threshold in 2 countries: Cameroon (1) and Ghana (5). Cameroon: The district of Loum in the Littoral Region reached the alert threshold with an AR of 3.7. Ghana: The district of Nadowli in the Upper West Region reached the epidemic threshold with 12 cases and 1 death and an AR of 16.4. 5 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) which was in epidemic phase in week 3 came back to alert phase with an AR of 6.0. Lawra (Upper West Region) with an AR of 9.1; Nadom (Upper West Region) with an AR of 7.5; Jamah North (BrongAhafo Region) with an AR of 3.9 and Asutifi North (Brong-Ahafo Region) with an AR of 3.3</t>
+  </si>
+  <si>
+    <t>At week 4 of year 2019, one (1) district in Ghana reached the epidemic threshold and six (6) districts crossed the alert threshold in 2 countries: Cameroon (1) and Ghana (5). Cameroon: The district of Loum in the Littoral Region reached the alert threshold with an AR of 3.7. Ghana: The district of Nadowli in the Upper West Region reached the epidemic threshold with 12 cases and 1 death and an AR of 16.4. 5 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) which was in epidemic phase in week 3 came back to alert phase with an AR of 6.0. Lawra (Upper West Region) with an AR of 9.1; Nadom (Upper West Region) with an AR of 7.5; Jamah North (BrongAhafo Region) with an AR of 3.9 and Asutifi North (Brong-Ahafo Region) with an AR of 3.4</t>
+  </si>
+  <si>
+    <t>At week 4 of year 2019, one (1) district in Ghana reached the epidemic threshold and six (6) districts crossed the alert threshold in 2 countries: Cameroon (1) and Ghana (5). Cameroon: The district of Loum in the Littoral Region reached the alert threshold with an AR of 3.7. Ghana: The district of Nadowli in the Upper West Region reached the epidemic threshold with 12 cases and 1 death and an AR of 16.4. 5 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) which was in epidemic phase in week 3 came back to alert phase with an AR of 6.0. Lawra (Upper West Region) with an AR of 9.1; Nadom (Upper West Region) with an AR of 7.5; Jamah North (BrongAhafo Region) with an AR of 3.9 and Asutifi North (Brong-Ahafo Region) with an AR of 3.5</t>
+  </si>
+  <si>
+    <t>At week 4 of year 2019, one (1) district in Ghana reached the epidemic threshold and six (6) districts crossed the alert threshold in 2 countries: Cameroon (1) and Ghana (5). Cameroon: The district of Loum in the Littoral Region reached the alert threshold with an AR of 3.7. Ghana: The district of Nadowli in the Upper West Region reached the epidemic threshold with 12 cases and 1 death and an AR of 16.4. 5 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) which was in epidemic phase in week 3 came back to alert phase with an AR of 6.0. Lawra (Upper West Region) with an AR of 9.1; Nadom (Upper West Region) with an AR of 7.5; Jamah North (BrongAhafo Region) with an AR of 3.9 and Asutifi North (Brong-Ahafo Region) with an AR of 3.6</t>
+  </si>
+  <si>
+    <t>At week 4 of year 2019, one (1) district in Ghana reached the epidemic threshold and six (6) districts crossed the alert threshold in 2 countries: Cameroon (1) and Ghana (5). Cameroon: The district of Loum in the Littoral Region reached the alert threshold with an AR of 3.7. Ghana: The district of Nadowli in the Upper West Region reached the epidemic threshold with 12 cases and 1 death and an AR of 16.4. 5 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) which was in epidemic phase in week 3 came back to alert phase with an AR of 6.0. Lawra (Upper West Region) with an AR of 9.1; Nadom (Upper West Region) with an AR of 7.5; Jamah North (BrongAhafo Region) with an AR of 3.9 and Asutifi North (Brong-Ahafo Region) with an AR of 3.7</t>
+  </si>
+  <si>
+    <t>At week 4 of year 2019, one (1) district in Ghana reached the epidemic threshold and six (6) districts crossed the alert threshold in 2 countries: Cameroon (1) and Ghana (5). Cameroon: The district of Loum in the Littoral Region reached the alert threshold with an AR of 3.7. Ghana: The district of Nadowli in the Upper West Region reached the epidemic threshold with 12 cases and 1 death and an AR of 16.4. 5 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) which was in epidemic phase in week 3 came back to alert phase with an AR of 6.0. Lawra (Upper West Region) with an AR of 9.1; Nadom (Upper West Region) with an AR of 7.5; Jamah North (BrongAhafo Region) with an AR of 3.9 and Asutifi North (Brong-Ahafo Region) with an AR of 3.8</t>
+  </si>
+  <si>
+    <t>At week 4 of year 2019, one (1) district in Ghana reached the epidemic threshold and six (6) districts crossed the alert threshold in 2 countries: Cameroon (1) and Ghana (5). Cameroon: The district of Loum in the Littoral Region reached the alert threshold with an AR of 3.7. Ghana: The district of Nadowli in the Upper West Region reached the epidemic threshold with 12 cases and 1 death and an AR of 16.4. 5 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) which was in epidemic phase in week 3 came back to alert phase with an AR of 6.0. Lawra (Upper West Region) with an AR of 9.1; Nadom (Upper West Region) with an AR of 7.5; Jamah North (BrongAhafo Region) with an AR of 3.9 and Asutifi North (Brong-Ahafo Region) with an AR of 3.9</t>
+  </si>
+  <si>
+    <t>At week 4 of year 2019, one (1) district in Ghana reached the epidemic threshold and six (6) districts crossed the alert threshold in 2 countries: Cameroon (1) and Ghana (5). Cameroon: The district of Loum in the Littoral Region reached the alert threshold with an AR of 3.7. Ghana: The district of Nadowli in the Upper West Region reached the epidemic threshold with 12 cases and 1 death and an AR of 16.4. 5 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) which was in epidemic phase in week 3 came back to alert phase with an AR of 6.0. Lawra (Upper West Region) with an AR of 9.1; Nadom (Upper West Region) with an AR of 7.5; Jamah North (BrongAhafo Region) with an AR of 3.9 and Asutifi North (Brong-Ahafo Region) with an AR of 3.10</t>
+  </si>
+  <si>
+    <t>At week 4 of year 2019, one (1) district in Ghana reached the epidemic threshold and six (6) districts crossed the alert threshold in 2 countries: Cameroon (1) and Ghana (5). Cameroon: The district of Loum in the Littoral Region reached the alert threshold with an AR of 3.7. Ghana: The district of Nadowli in the Upper West Region reached the epidemic threshold with 12 cases and 1 death and an AR of 16.4. 5 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) which was in epidemic phase in week 3 came back to alert phase with an AR of 6.0. Lawra (Upper West Region) with an AR of 9.1; Nadom (Upper West Region) with an AR of 7.5; Jamah North (BrongAhafo Region) with an AR of 3.9 and Asutifi North (Brong-Ahafo Region) with an AR of 3.11</t>
+  </si>
+  <si>
+    <t>At week 5 of year 2019, one (1) district in Ghana reached the epidemic threshold and seven (7) districts crossed the alert threshold in 3 countries: Burkina Faso (2), Ghana (4) and Chad (1). Burkina Faso: The district of Diapaga in the Region of Est is in alert phase with an AR of 5.9 (population of 523,250 inhabitants). However, one of the surveillance Zone of the district is in epidemic phase and the affected Health Areas are Botou and Kogoli. 7 Nm C and 1 Hib identified by PCR from the 12 CSF samples collected and tested. A vaccination campaign with Tetravalent vaccine (ACYW) has been conducted from 9th to 13th February 2019 in the epidemic Zone (10 Health Facilities). The district of Gaoua in the Sud-Ouest Region reached also the alert Threshold with an AR of 3.4. An ICG request is ongoing to address the situation in the country. Ghana: The district of Nandon in the Upper West Region surpassed in epidemic phase with an AR of 18.6. 4 other districts reached the alert threshold: Zabzugu-Tatale (Northern Region) with an AR of 8.4. Lawra (Upper West Region) with an AR of 3.0; Jamah North (Brong-Ahafo Region) with an AR of 3.9 and Nkoranza North (Brong-Ahafo Region) with an AR of 3.2. .Chad: The district of Goundi in Mandoul Region which was in alert the week 3 and 4 reamins in alert phase with an AR of 9.9 (Population 211,678 inhabitantes). The Spn and Nw135 remain the predominant germs identified. More detail analysis by sub district is awaited for a good appreciation of the situation.</t>
+  </si>
+  <si>
+    <r>
+      <t>At week 6 of year 2019, any district reached the epidemic threshold however ten (10) districts crossed the alert threshold in 5 countries: Benin (1), Burkina Faso (3), Cameroun (1), Ghana (4) and Chad (1). Benin: Tanguieta District in the Atacora Region reached the alert threshold with the AR of 3.4. Burkina Faso: Diapaga district in the Region of Est is still in alert phase with an AR of 3.8. The vaccination campaign was carried from 9 to 13 February 2019 targeted 117,887 persons aged 2-29 years with 118,670 doses of vaccines (A/C/YW) used with 98.5% coverage. In the Sud-Ouest Region, the district of Gaoua with an AR of 3.4 (5 Spn and 1 Hib out of 33 samples tested) and the district of Dano with an AR of 3.0 are also in alert phase.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cameroon: the district of Ndjombe Penja in Littoral crossed the alert threshold with an AR of 6.0. Ghana: 4 districts reached the alert threshold: Zabzugu-Tatale (Northern Region) with an AR of 9.6 and in the Upper West Region: Lawra with an AR of 7.6; Jirapa with an AR of 5.7 and Nadowli with an AR of 9.6. Chad: The district of Goundi in Mandoul Region is still in alert phase with an AR of 9.5. In this district, out of 74 samples tested, 13 Spn, 9 NmW, 4 Hib and 1 NmX were identified by the laboratory</t>
+    </r>
+  </si>
+  <si>
+    <t>At week 7 of year 2019, three (3) districts reached the epidemic threshold in 2 countries: Ghana (2) and Chad (1) and seven (7) districts crossed the alert threshold in 5 countries: Burkina Faso (1), Cameroun (1), Gambia (1), Ghana (2) and Chad (2). Burkina Faso: In the Sud-Ouest Region, the district of Gaoua with an AR of 5.2 is still in alert phase. 5 Spn and 1 Hib were identified by the laboratory in this district In the Diapaga district in Region of Est, the Surveillance Zone 1 was still in alert phase with an AR of 4.4. Cameroon: the district of Monatele in Centre Region crossed the alert threshold with an AR of 4.0. Gambia: the district of Illiasa in the North Bank Region West crossed the alert threshold with an AR of 3.6. Ghana: in the Upper West Region two districts reached the epidemic threshold: Nadowli with an AR of 12.3 and Nandom with and AR of 13.1. 2 districts reached the alert threshold: Zabzugu-Tatale (Northern Region) with an AR of 7.2 and in the Upper West Region: Lawra with an AR of 7.6. Chad: The district of Goundi in Mandoul Region in alert phase in the previous weeks, reached the epidemic threshold with an AR of 11.8. In this district, the cumulative laboratory results of 75 samples collected and tested showed: 3 Hib, 13 Spn , 18 NmW, 1 NmX, 30 Negative and 10 pending. In the Moyen-Chari Region the district of Korbol is also in alert phase with an AR of 4.9. Countries whose districts have crossed alert or epidemic thresholds are encouraged to investigate, confirm cases and prepare vaccine and ceftriaxone requests for ICG for a possible reactive vaccination campaign.</t>
+  </si>
+  <si>
+    <t>At week 8 of year 2019, one (1) district in Chad reached the epidemic threshold and twelve (12) districts crossed the alert threshold in 5 countries: Benin (2), Burkina Faso (3), Central Africa (1), Ghana (4) and Chad (2). Benin: In the Atacora Region, the district of Tanguieta with an AR of 4.5 and the district of Tocountouna with an AR of 4.2 crossed the alert threshold. Burkina Faso: In the South-Ouest Region, the districts of Gaoua with an AR of 3.4, Dano with an AR of 3.0 and Batie with an AR of 3.9 are in alert phase. Central African Republic: the district of NanaGrebizi in the Region 4 crossed the alert threshold with an AR of 4.5. Ghana: in the Upper West Region, four districts reached the alert threshold with the following AR: Lawra 7.6; Nadowli 6.8; Nandom 9.3 and Lambruissie 6.5. Chad: In the Mandoul Region, the district of Goundi is still in epidemic phase with an AR of 11.8 and the district of Bedjondo is again in alert phase with an AR of 9.1. In the Moyen-Chari Region the district of Biobe Singako reached the alert threshold with an AR of 4.5. A country request to ICG has been approved and 209,109 doses of the trivalent polysaccharide PS-ACW will be used to respond to the outbreak targeting 150,709 persons aged 2 to 29 years old. Burkina Faso and Ghana should strengthen the trans-border surveillance in South-Ouest Region (Burkina Faso) and the Upper West Region (Ghana) for a better management of the current meningitis hotspots at the borders of the two countries.</t>
+  </si>
+  <si>
+    <t>At week 9 of year 2019, three (3) districts in Nigeria (1) Chad (1) and Togo (1) reached the epidemic threshold and fifteen (15) districts crossed the alert threshold in 5 countries: Benin (3), Burkina Faso (4), Cameroon (1), Ghana (3), Nigeria (1) and Chad (3). Benin: In the Atacora Region, the districts of Materi with the ARs of 3.7, Tanguieta AR of 3.4 and Tocountouna AR of 4.2 crossed the alert threshold. Burkina Faso: In the South-Ouest Region, the districts of Gaoua with an AR of 6.0, Dano with an AR of 3.1 and Batie with an AR of 3.9 still remain in alert phase. The district of Diapaga which had its surveillance Zone I in epidemic phase and was vaccinated, reached again the alert threshold with an AR of 3.3. However, the surveillance Zone II of the district is also in epidemic phase. ICG has approved the supply of 300,000 doses of conjugate tetravalent ACYW vaccine for an emergency vaccination campaign in the remaining Surveillance Zones of the district of Diapaga. Vaccines are expected in country . Cameroon: the district of Garoua Boulai in the Region Est crossed the alert threshold with an AR of 3.1. Ghana: in the Upper West Region, two (2) districts reached the alert threshold with the following AR: Nadowli 6.8; Nandom 5.6 and in the Upper East Region the district of Builsa South reached the alert threshold with an AR of 4.9. Nigeria: Borgu LGA in the Niger State reached the epidemic threshold with an AR of 10.5. Borgu LGA should be divided in two sub-LGAs in order to see the real magnitude of the outbreak and adequate action should be taken. In Kebbi State, Aleiro LGA reached the alert threshold with an AR of 3.1. Investigation of Borgu and Alreido outbreaks should be carried out and reports shared. Laboratory data of affected LGAs are awaited and the country is encouraged to strengthen the surveillance in the affected States including the cross-border Zones with Benin Republic and Niger Republic. Chad: In Mandoul Region, the district of Goundi is still in epidemic phase with an AR of 16.1 and the district of Bedjondo remains in alert phase with an AR of 8.7. In Moyen-Chari Region, the district of Kyabe reached the alert threshold with an AR of 4.8, and the district of Larmanaye reached the alert threshold with an AR of 3.1.</t>
+  </si>
+  <si>
+    <t>At week 10 of year 2019, one (1) district in Togo (1) reached the epidemic threshold and eleven (11) districts crossed the alert threshold in 6 countries: Burkina Faso (2), Cameroon (1), Central Africa (2), Ghana (3), Nigeria (1) and Chad (2). Burkina Faso: In the South-Ouest Region, the districts of Gaoua with an AR of 6.4, and Batie with an AR of 5.8 still remain in alert phase.  Cameroon: the district of Edea in the Region of Littoral crossed the alert threshold with an AR of 3.1. Central Africa: The districts of Nana-Grebizi in the Region 4 with an AR of 4.5 and Bangui I in the Region 7 reached the alert threshold. Ghana: in the Upper West Region, the districts of Nadowli with an AR of 5.5 and Nandom with an AR of 7.5 remained in alert phase. In the Upper East Region, the district of Builsa reached the alert threshold with an AR of 3.2. Nigeria: In Kebbi State the LGA of Malumfashi reached the alert threshold with an AR of 4.1. Chad: In Mandoul Region, the district of Goundi has come back to alert phase with an AR of 9.0 and the district of Koumra reached the alert threshold with an AR of 5.6. Togo: The Kpendjal district in the Savanes Region remains in epidemic phase with an AR of 18.7. The NmC is the main pathogen identified by the laboratory. The reactive vaccination around the cases notified have been organized by the country in the previous weeks.</t>
+  </si>
+  <si>
+    <t>At week 11 of year 2019, four (4) districts in Ghana (1), Nigeria (1), Chad (1) and Togo (1) reached the epidemic threshold and nine (9) districts crossed the alert threshold in 5 countries: Benin (1), Burkina Faso (2), Central Africa (1), Ghana (2) and Chad (3). Benin: the district of Tanguieta in the Region of Atacora crossed the alert threshold with an AR of 3.4. Burkina Faso: In the South-Ouest Region, the district of Gaoua with an AR of 4.9 has remained in alert phase. In the Region of Est the district of Diapaga has come back in alert phase with an AR of 3.6. A reactive vaccination campaign is ongoing with the tetravalent conjugate vaccine in the district’s Surveillance Zones II, III and IV. Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 6.2. Ghana: in the Upper West Region, the districts of Nandom with an AR of 14.9 has come back in epidemic phase and Jirapa with an AR of 3.8 reached the alert threshold. In the Upper East Region, the district of Bwaku West reached the alert threshold with an AR of 6.7. Nigeria: In Katsina State the LGA of Malumfashi, in alert phase in the previous week, reached the epidemic threshold with an AR of 21.6. NmC would be the germ identified. More information about this outbreak investigation (Laboratory data) is awaited from the country. However, ICG request is being prepared with the challenge of low CSF collection rate. Chad: In Mandoul Region, the district of Goundi has returned to epidemic phase with an AR of 12.8 and the district of Bedjondo reached the alert threshold with an AR of 5.7. In the MoyenChari Region the districts of Kyabe with an AR of 5.9 and Korbol with an AR of 4.5 reached the alert threshold. Togo: The Kpendjal Ouest district in the Savanes Region remains in epidemic phase with an AR of 21.4. An ICG vaccine request has been submitted for a reactive immunization campaign in the district.</t>
+  </si>
+  <si>
+    <t>At week 12 of year 2019, four (4) districts in Ghana (1), Nigeria (1), Chad (1) and Togo (1) have remained in epidemic phase and fifteen (15) districts crossed the alert threshold in 8 countries: Benin (2), Burkina Faso (2), Central Africa (1), Ghana (5), Niger (1), Nigeria (1), Chad (2) and Togo (1). Benin: the districts of Tanguieta in the Region of Atacora with an AR of 4.5 and Kandi in the Alibori Region with an AR of 3.8 crossed the alert threshold. Investigations should be done in these two districts. Burkina Faso: In the Sud-Ouest Region, the district of Diebougou with an AR of 6.7 reached the alert threshold. In the Region of Centre-Est the district of Zabre reached the alert threshold with an AR of 3.0. Investigations should be done in these two districts. Central Africa: The district of Ouango-Gambo in the Region 6 reached the alert threshold with an AR of 5.9. Investigation should be done in this district. Ghana: in the Upper West Region, the district of Nandom with an AR of 14.9 has remained in epidemic phase and the districts of Lawra with an AR of 7.6 and Nadowli with an AR of 4.1 reached the alert threshold. In the Upper East Region, the district of Builsa with an AR of 6.4, Pusiga with an AR of 3.1 and Talensi with an AR of 4.4 reached the alert threshold. Niger: The district of Niamey 4 in the region of Niamey reached the alert threshold with an AR of 4.7. Nigeria: In the Katsina State the LGA of Malumfashi, has remained in epidemic phase with an AR of 12.3. In the Sokoto State the LGA of Tangaza reached the alert threshold with an AR of 4. 2. Investigations should be done in these two LGAs. Chad: In Mandoul Region, the district of Goundi has remained in epidemic phase with an AR of 11.0 and the district of Bedjondo has remained in alert phase with an AR of 6.8. In the Region of Tadjile the district of Mono Manga with an AR of 4.1 reached the alert threshold. Investigation should be done in this district. Togo: The Kpendjal Ouest district in the Savanes Region remains in epidemic phase with an AR of 22.2. The vaccines approved by ICG are being deployed in the country for reactive vaccination campaign in the district. In the same region the district of Cinkasse reached the alert threshold with an AR of 3.1. Investigation should be done in this district.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At week 13 of year 2019, one district in Chad (1) remained in epidemic phase and four (4) districts crossed the alert threshold in 3 countries: Burkina Faso (1), Ghana (2), and Chad (1).  Burkina Faso: In the Region of Est the district of Pama reached the alert threshold with an AR of 3.1. Ghana: in the Upper West Region, the district of Nandom with an AR of 7.5 came back to alert phase with an AR of 7.5. In the Upper East Region, the district of Bawku with an AR of 4.8 reached the alert threshold. Chad: In Mandoul Region, the district of Goundi remained in epidemic phase with an AR of 13.2 and the district of Bedjondo remained in alert phase with an AR of 4.6. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At week 14 of year 2019, one district in Togo (1) remained in epidemic phase and six (6) districts crossed the alert threshold in 4 countries: Burkina Faso (1), Cameroon (1), Ghana (2), and Chad (2). Burkina Faso: In the Region of Sahel the district of Sebba reached the alert threshold with an AR of 9.2. Cameroon: The district of Mouloundou in the East Region reached the alert threshold with an AR of 4.33. Ghana: in the Upper West Region, the district of Nandom with an AR of 7.5 remained in alert phase with an AR of 7.5. In the Upper East Region, the district of Kassena-Nankana with an AR of 3.3 reached the alert threshold. Chad: In Mandoul Region, the district of Goundi is back to the alert phase with an AR of 8.2 and the district of Bedjondo remained in alert phase with an AR of 3.0. </t>
+  </si>
+  <si>
+    <t>At week 15 of year 2019, the Kpendjal Ouest district in Togo remained in epidemic phase with a decreasing AR of 14.0. Six (6) districts crossed the alert threshold in 6 countries: Benin (1), Burkina Faso (1), Gambia (1), Ghana (1), Nigeria (1) and Chad (1). Benin: The district of Tanguieta in the Atacora Region reached the alert threshold with an AR of 4.5. Burkina Faso: In the Region of Sud-Ouest the district of Gaoua reached again the alert threshold with an AR of 3.7. The Sebba district, the surveillance zone II had crossed the epidemic threshold at week 14, while the Gayeri district surveillance zone I crossed the alert threshold at the same week. A vaccine application has been sent to ICG for the organization of an immunization campaign in these two districts. Gambia: The district of Falludu-East in the Upper River Region reached the alert threshold with an AR of 5.2. Ghana: in the Upper West Region, the district of Nandom with an AR of 7.5 has remained in alert phase. Nigeria: In the Zamfara State the LGA of Shinkafi reached the alert threshold with an AR of 4.4. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 5.0. In South Sudan at week 14, the district of Awiel West in the North Bahr El Ghazal Region had crossed the alert threshold with an AR of 3.9 (10 cases with 3 deaths).</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.2</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.3</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.4</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.5</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.6</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.7</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.8</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.9</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.10</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.11</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.12</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.13</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.14</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.15</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.16</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.17</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.18</t>
+  </si>
+  <si>
+    <t>At week 16 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, five (5) districts crossed the alert threshold in 4 countries: Central Africa (1), Ghana (1), Niger (1) and Chad (1). Central Africa: The district of Bangui I in the Region 7 reached the alert threshold with an AR of 5.1. Ghana: in the Upper West Region, the district of Nadowli with an AR of 6.8 reached the alert threshold. Niger: The district of Malbaza in the Region of Tahoua reached the alert threshold with an AR of 3.3. Chad: In Mandoul Region, the district of Goundi remained in alert phase with an AR of 3.2. In the Region of Mayo-Kebbi-Ouest, the district of Lame reached the alert threshold with AR of 3.1</t>
+  </si>
+  <si>
+    <t>At week 17 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, four (4) districts crossed the alert threshold in 4 countries: Burkina Faso (1), Ghana (1), South Sudan (1) and Chad (1). Burkina Faso: The district of Gaoua in the SudOuest Region reached again the alert threshold with an AR of 4.5. Ghana: in the Upper West Region, the district of Nadowli is remained in alert phase with an AR of 4.1. South Sudan: The district of Awiel Centre in the Region of Northern Bahr El Ghazal reached the alert threshold with an AR of 5.7. Chad: In the Region of Guera, the district of Baro reached the alert threshold with AR of 3.1.</t>
+  </si>
+  <si>
+    <t>At week 18 of year 2019, no district reached the epidemic threshold in the countries which reported data. However, four (4) districts in 4 countries crossed the alert threshold: Cameroon (1), Central Africa (1), Chad (1) and Togo (1). Cameroon: The district of Ambam in the South Province reached the alert threshold with an AR of 4.2. Central African Republic: in Health Region #2, the district of Baboua-Abba reached the alert threshold with an AR of 5.0. Chad: In the Region of Guera, the district of Baro is still in the alert threshold with AR of 3.1. Togo: The district of Danyi in the Region of Plateaux reached the alert threshold with an AR of 4.2.</t>
+  </si>
+  <si>
+    <t>At week 19 of year 2019, no district reached the alert or epidemic threshold in the countries which reported data. Completeness of data and timelines of reports remain low. Countries are invited to improve these indicators throughout the year.</t>
+  </si>
+  <si>
+    <t>At week 20 of year 2019, three districts reached the alert threshold in Ghana, Nigeria and South Sudan. No district reached the epidemic threshold in the countries which reported data. Ghana: In the Volta Region the district of North Dayi reached the alert threshold with an AR of 4.0. Nigeria: The LGA of Sabon Birni in the Sokoto State reached the alert threshold with an AR of 4.9. South Sudan: In the Upper Nile Region the district of Malakal reached the alert threshold with an AR of 4.9.</t>
+  </si>
+  <si>
+    <t>At week 21 of year 2019, no district reached the alert nor the epidemic threshold in the countries which reported data.</t>
+  </si>
+  <si>
+    <t>At week 22 of year 2019, no district reached the epidemic threshold and three districts reached the alert threshold in the countries which reported data (Gambia, Ghana and Senegal). Gambia: The district of Illiasa in the North Bank East Region reached the alert threshold with an AR of 3.6. Ghana: The district of Nandom in the Upper West Region reached again the alert threshold with an AR of 5.6. Senegal: The district of Pete in the Region of Saint Louis reached the alert threshold with an AR of 4.7.</t>
+  </si>
+  <si>
+    <t>At week 23 of year 2019, no district reached the epidemic threshold and three districts reached the alert threshold in the countries which reported data (Benin, Ghana and South Sudan). Benin: The district of Toucountouna in the Atacora Region reached the alert threshold with an AR of 4.2. Ghana: The district of Nandom in the Upper West Region has remained in alert phase with an AR of 3.7. South Sudan: The district of Pibor in the Jonglei Region reached the alert threshold with an AR of 3.6. Countries are encouraged to more investigated cases from alert districts.</t>
+  </si>
+  <si>
+    <t>Among the countries which reported data at week 24 of year 2019, no district reached the epidemic threshold. However the district of Nandom in the Upper West region in Ghana has remained in the alert phase with an AR of 4.6.</t>
+  </si>
+  <si>
+    <t>Among the countries which reported data at week 25 of year 2019, no district reached the epidemic threshold. However, in the Upper West region in Ghana, the district of Nandom has remained in the alert phase with an AR of 3.0 and the district of Lawra reached the alert threshold with an AR of 3.7.</t>
+  </si>
+  <si>
+    <t>Among the countries which reported data at week 26 of year 2019, no district reached the epidemic threshold. However, in the Upper West region in Ghana, the district of Nandom has remained in the alert phase with an AR of 3.7; In Benin the district of Toucountouna in the Atacora Region reached the alert threshold with an AR of 4.2 and in Central African Republic the district of Ouango-Gambo in Region 6 reached the alert threshold with an AR of 3.5. After the release of the current issue number 26, corresponding to the end of the meningitis season, the bulletin will be produced now on a monthly basis. The weekly edition will resume in January 2020.</t>
+  </si>
+  <si>
+    <t>From week 27 to 30 (July 2019), no district reached the epidemic threshold among the countries which reported data. However, 4 districts have reached so far the alert threshold in 4 countries during the same period: Benin: The district of Tanguieta in the Atacora Region. In Central Africa: The district OuangoGambo in the Region VI. Ghana: The district of Nandom in the Upper West region. Togo: The district of Assoli in the Region of Kara</t>
+  </si>
+  <si>
+    <t>From week 31 to 35 (August 2019), no district reached the epidemic threshold among the countries which reported data. However, 5 districts have reached so far the alert threshold in 3 countries (Central Afric Republica, Ghana and Gambia) during the same period: In Central Africa Republic: The district Ouango-Gambo in the Region VI is still in alert phase (week 31 and 33). Ghana: The district of Nandom (week 31), Nadowli (Week 33) and Lawra (Week 35) reached the alert threshold in the Upper West region. Gambia: The district of Falladu-West in the Region of Central River reached the alert threshold (week 31)</t>
+  </si>
+  <si>
+    <t>From week 36 to 39 (September 2019), of the countries that shared data with IST, no district crossed the epidemic threshold. However, 4 districts have reached so far the alert threshold in 3 countries (Benin, Central Africa Republic and Ghana) during the same period: In Benin: The district of Cobly in the Atacora Region reached the alert threshold at week 37. In Central African Republic: The district of Ouango-Gambo in the Region VI is still in alert phase (week 36). Ghana: The districts of Nandom (week 38) and Lawra (Week 36) reached the alert threshold in the Upper West region.</t>
+  </si>
+  <si>
+    <t>From week 40 to 44 (November 2019), one district in Ghana crossed the epidemic threshold. Four other districts reached the alert threshold in 4 countries (Benin, Ghana, Nigeria and Chad) during the same period: Benin: The district of Tanguieta in the Atacora Region reached the alert threshold at week 42. Ghana: In the Upper West region, the district of Nandom reached the epidemic threshold with an AR of 13.1 at week 43 and the district of Lawra reached the alert threshold at week 42. Nigeria: The LGA of Katsina in the Katsina State reached the alert threshold at week 42. Chad: The district of Goundi in the Mandoul Region reached the alert threshold at weeks 43 and 44.</t>
+  </si>
+  <si>
+    <t>From week 45 to 48 (November 2019), the district of Nandom in the Upper West region in Ghana remained in the epidemic phase at week 45. Three other districts reached the alert threshold in 3 countries (Benin, Ghana and Chad) during the same period: Benin: The district of Tanguieta in the Atacora Region reached the alert threshold at week 48. Ghana: In the Upper West region, the district the district of Lawra (Weeks 45 and 46) and district of Daffiama-Bussie-Issa (Week 48) reached the alert threshold during the month of November. Chad: The district of Goundi in the Mandoul Region remained in the alert phase at weeks 45 and 47.</t>
+  </si>
+  <si>
+    <r>
+      <t>From week 49 to 52 (December 2019), 8 districts reached the alert threshold in 7 countries (Benin, Central Africa, Ghana, Guinea, Niger, Chad and Togo): Benin: The district of Banikoara in the Alibori region is in alert phase on week 52. However, one sub-district (Banikoaro B) has been in outbreak since week 50. NmC is the predominantly germ identified by the laboratory. An ICG request for vaccines and drugs is underway to control the outbreak. In addition, the Cobly district in the Atacora region crossed the alert threshold on week 49. Central Africa: The district of Nana-Grebizi in region 4 reached the alert threshold on week 50.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ghana: In the Norhern region, the district of Saboba (Weeks 50 and 52) reached the alert threshold. Guinea: The district of Kaloum in Conakry region reached the alert threshold on week 50. Niger: The district of Tahoua Commune in Tahoua region reached the alert threshold on week 50. Chad: The district of Goundi in the Mandoul Region remained in the alert phase on weeks 52. Togo: The district of Assoli in the Kara region reached the alert threshold on week 51.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -3776,10 +3995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C746BBC-C645-1F4F-8320-B975E69CA53A}">
-  <dimension ref="A1:G2656"/>
+  <dimension ref="A1:G3171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2628" zoomScale="107" workbookViewId="0">
-      <selection activeCell="G2637" sqref="G2637:G2656"/>
+    <sheetView tabSelected="1" topLeftCell="A3141" zoomScale="107" workbookViewId="0">
+      <selection activeCell="G3155" sqref="G3155:G3171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53893,6 +54112,8761 @@
         <v>530</v>
       </c>
     </row>
+    <row r="2657" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2657" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2657" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C2657" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2657" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2657" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2658" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2658" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C2658" s="3">
+        <v>40</v>
+      </c>
+      <c r="D2658" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2658" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2659" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2659" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C2659" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2659" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2659" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2660" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2660" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C2660" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2660" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2660" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2661" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2661" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C2661" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2661" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2661" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2662" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2662" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C2662" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2662" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2662" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2663" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2663" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C2663" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2663" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2663" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2664" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2664" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C2664" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2664" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2664" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2665" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2665" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C2665" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2665" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2665" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2666" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2666" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C2666" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2666" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2666" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2667" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2667" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2667" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2667" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2667" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2668" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2668" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2668" s="3">
+        <v>53</v>
+      </c>
+      <c r="D2668" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2668" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2669" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2669" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2669" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2669" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2669" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2670" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2670" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2670" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2670" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2670" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2671" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2671" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2671" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2671" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2671" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2672" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2672" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2672" s="3">
+        <v>43</v>
+      </c>
+      <c r="D2672" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2672" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2673" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2673" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2673" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2673" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2673" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2674" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2674" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2674" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2674" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2674" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2675" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2675" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2675" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2675" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2675" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2676" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2676" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2676" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2676" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2676" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2677" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2677" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2677" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2677" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2677" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2678" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2678" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2678" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2678" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2678" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2679" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2679" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C2679" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2679" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2679" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2680" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2680" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2680" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2680" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2680" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2681" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2681" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2681" s="3">
+        <v>54</v>
+      </c>
+      <c r="D2681" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2681" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2682" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2682" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2682" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2682" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2682" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2683" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2683" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2683" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2683" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2683" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2684" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2684" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2684" s="3">
+        <v>82</v>
+      </c>
+      <c r="D2684" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2684" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2685" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2685" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2685" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2685" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2685" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2686" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2686" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2686" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2686" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2686" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2687" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2687" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2687" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2687" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2687" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2688" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2688" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2688" s="3">
+        <v>29</v>
+      </c>
+      <c r="D2688" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2688" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2689" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2689" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2689" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2689" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2689" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2690" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2690" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2690" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2690" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2690" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2691" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2691" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2691" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2691" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2691" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2692" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2692" s="1">
+        <v>43479</v>
+      </c>
+      <c r="C2692" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2692" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2692" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2693" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2693" s="1">
+        <v>43486</v>
+      </c>
+      <c r="C2693" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2693" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2693" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2694" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2694" s="1">
+        <v>43486</v>
+      </c>
+      <c r="C2694" s="3">
+        <v>48</v>
+      </c>
+      <c r="D2694" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2694" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2695" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2695" s="1">
+        <v>43486</v>
+      </c>
+      <c r="C2695" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2695" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2695" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2696" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2696" s="1">
+        <v>43486</v>
+      </c>
+      <c r="C2696" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2696" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2696" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2697" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2697" s="1">
+        <v>43486</v>
+      </c>
+      <c r="C2697" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2697" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2697" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2698" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2698" s="1">
+        <v>43486</v>
+      </c>
+      <c r="C2698" s="3">
+        <v>53</v>
+      </c>
+      <c r="D2698" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2698" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2699" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2699" s="1">
+        <v>43486</v>
+      </c>
+      <c r="C2699" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2699" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2699" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2700" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2700" s="1">
+        <v>43486</v>
+      </c>
+      <c r="C2700" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2700" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2700" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2701" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2701" s="1">
+        <v>43486</v>
+      </c>
+      <c r="C2701" s="3">
+        <v>31</v>
+      </c>
+      <c r="D2701" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2701" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2702" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2702" s="1">
+        <v>43486</v>
+      </c>
+      <c r="C2702" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2702" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2702" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2703" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2703" s="1">
+        <v>43486</v>
+      </c>
+      <c r="C2703" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2703" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2703" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2704" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2704" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C2704" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2704" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2704" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2705" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2705" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C2705" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2705" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2705" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2706" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2706" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C2706" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2706" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2706" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2707" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2707" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C2707" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2707" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2707" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2708" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2708" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C2708" s="3">
+        <v>45</v>
+      </c>
+      <c r="D2708" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2708" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2709" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2709" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C2709" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2709" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2709" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2710" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2710" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C2710" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2710" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2710" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2711" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2711" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C2711" s="3">
+        <v>22</v>
+      </c>
+      <c r="D2711" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2711" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2712" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2712" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C2712" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2712" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2712" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2713" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2713" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C2713" s="3">
+        <v>29</v>
+      </c>
+      <c r="D2713" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2713" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2714" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2714" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C2714" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2714" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2714" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2715" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2715" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2715" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2715" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2715" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2716" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2716" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2716" s="3">
+        <v>102</v>
+      </c>
+      <c r="D2716" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2716" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2717" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2717" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2717" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2717" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2717" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2718" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2718" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2718" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2718" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2718" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2719" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2719" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2719" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2719" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2719" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2720" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2720" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2720" s="3">
+        <v>44</v>
+      </c>
+      <c r="D2720" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2720" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2721" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2721" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2721" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2721" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2721" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2722" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2722" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2722" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2722" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2722" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2723" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2723" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2723" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2723" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2723" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2724" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2724" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2724" s="3">
+        <v>23</v>
+      </c>
+      <c r="D2724" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2724" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2725" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2725" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2725" s="3">
+        <v>21</v>
+      </c>
+      <c r="D2725" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2725" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2726" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2726" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2726" s="3">
+        <v>148</v>
+      </c>
+      <c r="D2726" s="3">
+        <v>16</v>
+      </c>
+      <c r="G2726" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2727" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2727" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2727" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2727" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2727" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2728" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2728" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2728" s="3">
+        <v>36</v>
+      </c>
+      <c r="D2728" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2728" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2729" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2729" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C2729" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2729" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2729" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2730" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2730" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2730" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2730" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2730" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2731" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2731" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2731" s="3">
+        <v>96</v>
+      </c>
+      <c r="D2731" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2731" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2732" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2732" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2732" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2732" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2732" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2733" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2733" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2733" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2733" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2733" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2734" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2734" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2734" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2734" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2734" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2735" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2735" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2735" s="3">
+        <v>52</v>
+      </c>
+      <c r="D2735" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2735" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2736" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2736" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2736" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2736" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2736" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2737" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2737" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2737" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2737" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2737" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2738" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2738" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2738" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2738" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2738" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2739" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2739" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2739" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2739" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2739" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2740" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2740" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2740" s="3">
+        <v>16</v>
+      </c>
+      <c r="D2740" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2740" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2741" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2741" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2741" s="3">
+        <v>26</v>
+      </c>
+      <c r="D2741" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2741" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2742" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2742" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2742" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2742" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2742" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2743" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2743" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2743" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2743" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2743" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2744" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2744" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2744" s="3">
+        <v>46</v>
+      </c>
+      <c r="D2744" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2744" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2745" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2745" s="1">
+        <v>43507</v>
+      </c>
+      <c r="C2745" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2745" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2745" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2746" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2746" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2746" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2746" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2746" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2747" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2747" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2747" s="3">
+        <v>95</v>
+      </c>
+      <c r="D2747" s="3">
+        <v>9</v>
+      </c>
+      <c r="G2747" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2748" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2748" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2748" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2748" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2748" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2749" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2749" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2749" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2749" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2749" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2750" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2750" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2750" s="3">
+        <v>43</v>
+      </c>
+      <c r="D2750" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2750" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2751" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2751" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2751" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2751" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2751" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2752" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2752" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2752" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2752" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2752" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2753" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2753" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2753" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2753" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2753" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2754" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2754" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2754" s="3">
+        <v>30</v>
+      </c>
+      <c r="D2754" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2754" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2755" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2755" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2755" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2755" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2755" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2756" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2756" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2756" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2756" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2756" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2757" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2757" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2757" s="3">
+        <v>67</v>
+      </c>
+      <c r="D2757" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2757" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2758" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2758" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C2758" s="3">
+        <v>22</v>
+      </c>
+      <c r="D2758" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2758" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2759" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2759" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2759" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2759" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2759" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2760" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2760" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2760" s="3">
+        <v>115</v>
+      </c>
+      <c r="D2760" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2760" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2761" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2761" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2761" s="3">
+        <v>19</v>
+      </c>
+      <c r="D2761" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2761" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2762" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2762" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2762" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2762" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2762" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2763" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2763" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2763" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2763" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2763" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2764" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2764" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2764" s="3">
+        <v>28</v>
+      </c>
+      <c r="D2764" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2764" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2765" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2765" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2765" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2765" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2765" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2766" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2766" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2766" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2766" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2766" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2767" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2767" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2767" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2767" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2767" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2768" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2768" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2768" s="3">
+        <v>31</v>
+      </c>
+      <c r="D2768" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2768" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2769" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2769" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2769" s="3">
+        <v>77</v>
+      </c>
+      <c r="D2769" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2769" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2770" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2770" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2770" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2770" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2770" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2771" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2771" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2771" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2771" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2771" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2772" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2772" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2772" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2772" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2772" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2773" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2773" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2773" s="3">
+        <v>78</v>
+      </c>
+      <c r="D2773" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2773" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2774" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2774" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C2774" s="3">
+        <v>43</v>
+      </c>
+      <c r="D2774" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2774" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2775" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2775" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2775" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2775" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2775" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2776" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2776" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2776" s="3">
+        <v>115</v>
+      </c>
+      <c r="D2776" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2776" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2777" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2777" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2777" s="3">
+        <v>22</v>
+      </c>
+      <c r="D2777" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2777" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2778" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2778" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2778" s="3">
+        <v>31</v>
+      </c>
+      <c r="D2778" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2778" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2779" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2779" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2779" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2779" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2779" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2780" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2780" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2780" s="3">
+        <v>27</v>
+      </c>
+      <c r="D2780" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2780" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2781" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2781" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2781" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2781" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2781" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2782" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2782" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2782" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2782" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2782" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2783" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2783" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2783" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2783" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2783" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2784" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2784" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2784" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2784" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2784" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2785" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2785" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2785" s="3">
+        <v>34</v>
+      </c>
+      <c r="D2785" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2785" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2786" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2786" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2786" s="3">
+        <v>60</v>
+      </c>
+      <c r="D2786" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2786" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2787" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2787" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2787" s="3">
+        <v>155</v>
+      </c>
+      <c r="D2787" s="3">
+        <v>9</v>
+      </c>
+      <c r="G2787" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2788" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2788" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2788" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2788" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2788" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2789" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2789" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2789" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2789" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2789" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2790" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2790" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2790" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2790" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2790" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2791" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2791" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2791" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2791" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2791" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2792" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2792" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2792" s="3">
+        <v>41</v>
+      </c>
+      <c r="D2792" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2792" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2793" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2793" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C2793" s="3">
+        <v>49</v>
+      </c>
+      <c r="D2793" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2793" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2794" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2794" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2794" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2794" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2794" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2795" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2795" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2795" s="3">
+        <v>114</v>
+      </c>
+      <c r="D2795" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2795" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2796" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2796" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2796" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2796" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2796" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2797" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2797" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2797" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2797" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2797" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2798" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2798" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2798" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2798" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2798" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2799" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2799" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2799" s="3">
+        <v>44</v>
+      </c>
+      <c r="D2799" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2799" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2800" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2800" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2800" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2800" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2800" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2801" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2801" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2801" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2801" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2801" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2802" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2802" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2802" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2802" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2802" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2803" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2803" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2803" s="3">
+        <v>30</v>
+      </c>
+      <c r="D2803" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2803" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2804" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2804" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2804" s="3">
+        <v>129</v>
+      </c>
+      <c r="D2804" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2804" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2805" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2805" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2805" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2805" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2805" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2806" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2806" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2806" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2806" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2806" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2807" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2807" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2807" s="3">
+        <v>75</v>
+      </c>
+      <c r="D2807" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2807" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2808" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2808" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C2808" s="3">
+        <v>48</v>
+      </c>
+      <c r="D2808" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2808" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2809" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2809" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2809" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2809" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2809" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2810" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2810" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2810" s="3">
+        <v>137</v>
+      </c>
+      <c r="D2810" s="3">
+        <v>9</v>
+      </c>
+      <c r="G2810" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2811" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2811" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2811" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2811" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2811" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2812" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2812" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2812" s="3">
+        <v>22</v>
+      </c>
+      <c r="D2812" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2812" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2813" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2813" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2813" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2813" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2813" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2814" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2814" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2814" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2814" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2814" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2815" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2815" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2815" s="3">
+        <v>34</v>
+      </c>
+      <c r="D2815" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2815" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2816" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2816" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2816" s="3">
+        <v>16</v>
+      </c>
+      <c r="D2816" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2816" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2817" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2817" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2817" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2817" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2817" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2818" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2818" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2818" s="3">
+        <v>21</v>
+      </c>
+      <c r="D2818" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2818" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2819" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2819" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2819" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2819" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2819" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2820" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2820" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2820" s="3">
+        <v>57</v>
+      </c>
+      <c r="D2820" s="3">
+        <v>8</v>
+      </c>
+      <c r="G2820" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2821" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2821" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2821" s="3">
+        <v>98</v>
+      </c>
+      <c r="D2821" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2821" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2822" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2822" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2822" s="3">
+        <v>141</v>
+      </c>
+      <c r="D2822" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2822" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2823" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2823" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2823" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2823" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2823" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2824" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2824" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2824" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2824" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2824" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2825" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2825" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2825" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2825" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2825" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2826" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2826" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2826" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2826" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2826" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2827" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2827" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2827" s="3">
+        <v>67</v>
+      </c>
+      <c r="D2827" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2827" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2828" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2828" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C2828" s="3">
+        <v>46</v>
+      </c>
+      <c r="D2828" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2828" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2829" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2829" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2829" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2829" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2829" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2830" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2830" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2830" s="3">
+        <v>137</v>
+      </c>
+      <c r="D2830" s="3">
+        <v>13</v>
+      </c>
+      <c r="G2830" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2831" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2831" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2831" s="3">
+        <v>16</v>
+      </c>
+      <c r="D2831" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2831" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2832" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2832" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2832" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2832" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2832" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2833" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2833" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2833" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2833" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2833" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2834" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2834" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2834" s="3">
+        <v>31</v>
+      </c>
+      <c r="D2834" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2834" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2835" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2835" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2835" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2835" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2835" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2836" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2836" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2836" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2836" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2836" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2837" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2837" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2837" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2837" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2837" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2838" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2838" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2838" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2838" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2838" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2839" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2839" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2839" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2839" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2839" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2840" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2840" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2840" s="3">
+        <v>39</v>
+      </c>
+      <c r="D2840" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2840" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2841" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2841" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2841" s="3">
+        <v>73</v>
+      </c>
+      <c r="D2841" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2841" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2842" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2842" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2842" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2842" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2842" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2843" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2843" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2843" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2843" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2843" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2844" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2844" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2844" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2844" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2844" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2845" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2845" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2845" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2845" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2845" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2846" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2846" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C2846" s="3">
+        <v>56</v>
+      </c>
+      <c r="D2846" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2846" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2847" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2847" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2847" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2847" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2847" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2848" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2848" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2848" s="3">
+        <v>128</v>
+      </c>
+      <c r="D2848" s="3">
+        <v>14</v>
+      </c>
+      <c r="G2848" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2849" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2849" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2849" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2849" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2849" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2850" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2850" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2850" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2850" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2850" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2851" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2851" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2851" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2851" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2851" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2852" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2852" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2852" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2852" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2852" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2853" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2853" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2853" s="3">
+        <v>24</v>
+      </c>
+      <c r="D2853" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2853" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2854" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2854" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2854" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2854" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2854" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2855" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2855" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2855" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2855" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2855" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2856" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2856" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2856" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2856" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2856" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2857" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2857" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2857" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2857" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2857" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2858" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2858" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2858" s="3">
+        <v>41</v>
+      </c>
+      <c r="D2858" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2858" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2859" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2859" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2859" s="3">
+        <v>66</v>
+      </c>
+      <c r="D2859" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2859" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2860" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2860" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2860" s="3">
+        <v>177</v>
+      </c>
+      <c r="D2860" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2860" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2861" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2861" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2861" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2861" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2861" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2862" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2862" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2862" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2862" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2862" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2863" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2863" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2863" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2863" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2863" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2864" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2864" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2864" s="3">
+        <v>36</v>
+      </c>
+      <c r="D2864" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2864" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2865" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2865" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C2865" s="3">
+        <v>45</v>
+      </c>
+      <c r="D2865" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2865" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2866" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2866" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2866" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2866" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2866" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2867" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2867" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2867" s="3">
+        <v>90</v>
+      </c>
+      <c r="D2867" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2867" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2868" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2868" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2868" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2868" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2868" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2869" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2869" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2869" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2869" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2869" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2870" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2870" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2870" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2870" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2870" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2871" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2871" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2871" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2871" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2871" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2872" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2872" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2872" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2872" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2872" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2873" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2873" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2873" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2873" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2873" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2874" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2874" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2874" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2874" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2874" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2875" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2875" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2875" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2875" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2875" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2876" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2876" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2876" s="3">
+        <v>44</v>
+      </c>
+      <c r="D2876" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2876" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2877" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2877" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2877" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2877" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2877" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2878" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2878" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2878" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2878" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2878" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2879" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2879" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2879" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2879" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2879" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2880" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2880" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2880" s="3">
+        <v>23</v>
+      </c>
+      <c r="D2880" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2880" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2881" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2881" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C2881" s="3">
+        <v>27</v>
+      </c>
+      <c r="D2881" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2881" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2882" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2882" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2882" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2882" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2882" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2883" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2883" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2883" s="3">
+        <v>56</v>
+      </c>
+      <c r="D2883" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2883" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2884" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2884" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2884" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2884" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2884" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2885" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2885" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2885" s="3">
+        <v>22</v>
+      </c>
+      <c r="D2885" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2885" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2886" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2886" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2886" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2886" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2886" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2887" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2887" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2887" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2887" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2887" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2888" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2888" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2888" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2888" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2888" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2889" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2889" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2889" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2889" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2889" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2890" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2890" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2890" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2890" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2890" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2891" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2891" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2891" s="3">
+        <v>25</v>
+      </c>
+      <c r="D2891" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2891" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2892" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2892" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2892" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2892" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2892" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2893" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2893" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2893" s="3">
+        <v>44</v>
+      </c>
+      <c r="D2893" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2893" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2894" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2894" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2894" s="3">
+        <v>59</v>
+      </c>
+      <c r="D2894" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2894" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2895" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2895" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2895" s="3">
+        <v>97</v>
+      </c>
+      <c r="D2895" s="3">
+        <v>8</v>
+      </c>
+      <c r="G2895" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2896" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2896" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2896" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2896" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2896" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2897" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2897" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2897" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2897" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2897" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2898" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2898" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2898" s="3">
+        <v>16</v>
+      </c>
+      <c r="D2898" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2898" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2899" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2899" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C2899" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2899" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2899" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2900" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2900" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2900" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2900" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2900" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2901" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2901" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2901" s="3">
+        <v>59</v>
+      </c>
+      <c r="D2901" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2901" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2902" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2902" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2902" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2902" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2902" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2903" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2903" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2903" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2903" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2903" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2904" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2904" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2904" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2904" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2904" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2905" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2905" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2905" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2905" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2905" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2906" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2906" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2906" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2906" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2906" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2907" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2907" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2907" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2907" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2907" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2908" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2908" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2908" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2908" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2908" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2909" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2909" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2909" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2909" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2909" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2910" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2910" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2910" s="3">
+        <v>34</v>
+      </c>
+      <c r="D2910" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2910" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2911" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2911" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2911" s="3">
+        <v>34</v>
+      </c>
+      <c r="D2911" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2911" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2912" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2912" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2912" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2912" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2912" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2913" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2913" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2913" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2913" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2913" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2914" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2914" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2914" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2914" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2914" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2915" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2915" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2915" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2915" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2915" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2916" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2916" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2916" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2916" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2916" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2917" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2917" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C2917" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2917" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2917" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2918" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2918" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2918" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2918" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2918" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2919" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2919" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2919" s="3">
+        <v>43</v>
+      </c>
+      <c r="D2919" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2919" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2920" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2920" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2920" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2920" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2920" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2921" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2921" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2921" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2921" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2921" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2922" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2922" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2922" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2922" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2922" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2923" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2923" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2923" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2923" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2923" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2924" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2924" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2924" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2924" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2924" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2925" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2925" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2925" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2925" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2925" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2926" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2926" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2926" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2926" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2926" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2927" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2927" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2927" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2927" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2927" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2928" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2928" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2928" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2928" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2928" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2929" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2929" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2929" s="3">
+        <v>28</v>
+      </c>
+      <c r="D2929" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2929" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2930" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2930" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2930" s="3">
+        <v>47</v>
+      </c>
+      <c r="D2930" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2930" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2931" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2931" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2931" s="3">
+        <v>115</v>
+      </c>
+      <c r="D2931" s="3">
+        <v>8</v>
+      </c>
+      <c r="G2931" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2932" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2932" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2932" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2932" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2932" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2933" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2933" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2933" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2933" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2933" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2934" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2934" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2934" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2934" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2934" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2935" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2935" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2935" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2935" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2935" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2936" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2936" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C2936" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2936" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2936" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2937" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2937" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2937" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2937" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2937" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2938" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2938" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2938" s="3">
+        <v>49</v>
+      </c>
+      <c r="D2938" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2938" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2939" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2939" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2939" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2939" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2939" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2940" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2940" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2940" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2940" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2940" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2941" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2941" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2941" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2941" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2941" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2942" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2942" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2942" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2942" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2942" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2943" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2943" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2943" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2943" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2943" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2944" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2944" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2944" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2944" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2944" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2945" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2945" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2945" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2945" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2945" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2946" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2946" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2946" s="3">
+        <v>29</v>
+      </c>
+      <c r="D2946" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2946" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2947" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2947" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2947" s="3">
+        <v>30</v>
+      </c>
+      <c r="D2947" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2947" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2948" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2948" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2948" s="3">
+        <v>109</v>
+      </c>
+      <c r="D2948" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2948" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2949" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2949" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2949" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2949" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2949" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2950" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2950" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2950" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2950" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2950" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2951" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2951" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C2951" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2951" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2951" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2952" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2952" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2952" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2952" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2952" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2953" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2953" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2953" s="3">
+        <v>37</v>
+      </c>
+      <c r="D2953" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2953" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2954" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2954" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2954" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2954" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2954" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2955" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2955" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2955" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2955" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2955" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2956" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2956" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2956" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2956" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2956" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2957" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2957" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2957" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2957" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2957" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2958" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2958" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2958" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2958" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2958" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2959" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2959" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2959" s="3">
+        <v>16</v>
+      </c>
+      <c r="D2959" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2959" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2960" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2960" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2960" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2960" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2960" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2961" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2961" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2961" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2961" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2961" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2962" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2962" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2962" s="3">
+        <v>27</v>
+      </c>
+      <c r="D2962" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2962" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2963" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2963" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2963" s="3">
+        <v>150</v>
+      </c>
+      <c r="D2963" s="3">
+        <v>13</v>
+      </c>
+      <c r="G2963" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2964" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2964" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2964" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2964" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2964" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2965" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2965" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2965" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2965" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2965" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2966" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2966" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2966" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2966" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2966" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2967" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2967" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C2967" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2967" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2967" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2968" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2968" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2968" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2968" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2969" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2969" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2969" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2969" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2969" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2970" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2970" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2970" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2970" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2970" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2971" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2971" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2971" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2971" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2971" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2972" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2972" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2972" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2972" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2972" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2973" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2973" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2973" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2973" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2973" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2974" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2974" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2974" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2974" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2974" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2975" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2975" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2975" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2975" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2975" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2976" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2976" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2976" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2976" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2976" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2977" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2977" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2977" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2977" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2977" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2978" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2978" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2978" s="3">
+        <v>28</v>
+      </c>
+      <c r="D2978" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2978" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2979" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2979" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2979" s="3">
+        <v>142</v>
+      </c>
+      <c r="D2979" s="3">
+        <v>11</v>
+      </c>
+      <c r="G2979" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2980" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2980" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2980" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2980" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2980" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2981" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2981" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2981" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2981" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2981" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2982" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2982" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2982" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2982" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2982" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2983" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2983" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C2983" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2983" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2983" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2984" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2984" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2984" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2984" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2985" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2985" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2985" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2985" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2985" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2986" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2986" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2986" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2986" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2986" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2987" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2987" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2987" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2987" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2987" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2988" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2988" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2988" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2988" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2988" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2989" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2989" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2989" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2989" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2989" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2990" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2990" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2990" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2990" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2990" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2991" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2991" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2991" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2991" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2991" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2992" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2992" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2992" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2992" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2992" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2993" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2993" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2993" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2993" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2993" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2994" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2994" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2994" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2994" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2994" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2995" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2995" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2995" s="3">
+        <v>139</v>
+      </c>
+      <c r="D2995" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2995" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2996" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2996" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2996" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2996" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2996" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2997" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2997" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2997" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2997" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2997" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2998" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2998" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2998" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2998" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2998" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2999" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2999" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C2999" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2999" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2999" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3000" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3000" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C3000" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3000" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3000" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3001" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3001" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3001" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3001" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3002" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3002" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3002" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3002" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3002" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3003" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3003" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3003" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3003" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3003" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3004" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3004" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3004" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3004" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3004" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3005" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3005" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3005" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3005" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3005" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3006" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3006" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3006" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3006" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3006" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3007" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3007" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3007" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3007" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3007" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3008" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3008" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3008" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3008" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3008" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3009" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3009" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3009" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3009" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3009" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3010" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3010" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3010" s="3">
+        <v>103</v>
+      </c>
+      <c r="D3010" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3010" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3011" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3011" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3011" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3011" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3011" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3012" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3012" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3012" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3012" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3012" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3013" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3013" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3013" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3013" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3013" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3014" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3014" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C3014" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3014" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3014" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3015" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3015" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3015" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3015" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3016" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3016" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3016" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3016" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3016" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3017" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3017" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3017" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3017" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3017" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3018" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3018" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3018" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3018" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3018" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3019" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3019" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3019" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3019" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3019" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3020" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3020" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3020" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3020" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3020" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3021" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3021" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3021" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3021" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3021" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3022" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3022" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3022" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3022" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3022" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3023" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3023" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3023" s="3">
+        <v>144</v>
+      </c>
+      <c r="D3023" s="3">
+        <v>9</v>
+      </c>
+      <c r="G3023" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3024" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3024" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3024" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3024" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3024" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3025" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3025" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3025" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3025" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3025" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3026" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3026" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3026" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3026" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3026" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3027" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3027" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3027" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3027" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3027" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3028" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3028" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C3028" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3028" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3028" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3029" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3029" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3029" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3029" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3030" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3030" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3030" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3030" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3030" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3031" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3031" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3031" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3031" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3031" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3032" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3032" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3032" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3032" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3032" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3033" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3033" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3033" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3033" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3033" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3034" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3034" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3034" s="3">
+        <v>16</v>
+      </c>
+      <c r="D3034" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3034" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3035" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3035" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3035" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3035" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3035" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3036" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3036" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3036" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3036" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3036" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3037" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3037" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3037" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3037" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3037" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3038" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3038" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3038" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3038" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3038" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3039" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3039" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3039" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3039" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3039" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3040" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3040" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3040" s="3">
+        <v>21</v>
+      </c>
+      <c r="D3040" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3040" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3041" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3041" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3041" s="3">
+        <v>120</v>
+      </c>
+      <c r="D3041" s="3">
+        <v>11</v>
+      </c>
+      <c r="G3041" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3042" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3042" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3042" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3042" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3042" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3043" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3043" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3043" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3043" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3043" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3044" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3044" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3044" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3044" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3044" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3045" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3045" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3045" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3045" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3045" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3046" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3046" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3046" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3046" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3046" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3047" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3047" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C3047" s="3">
+        <v>14</v>
+      </c>
+      <c r="D3047" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3047" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3048" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3048" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3048" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3048" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3049" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3049" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3049" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3049" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3049" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3050" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3050" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3050" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3050" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3050" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3051" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3051" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3051" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3051" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3051" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3052" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3052" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3052" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3052" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3052" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3053" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3053" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3053" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3053" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3053" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3054" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3054" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3054" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3054" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3054" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3055" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3055" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3055" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3055" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3055" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3056" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3056" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3056" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3056" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3056" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3057" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3057" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3057" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3057" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3057" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3058" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3058" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3058" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3058" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3058" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3059" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3059" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3059" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3059" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3059" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3060" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3060" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3060" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3060" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3060" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3061" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3061" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3061" s="3">
+        <v>119</v>
+      </c>
+      <c r="D3061" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3061" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3062" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3062" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3062" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3062" s="3">
+        <v>9</v>
+      </c>
+      <c r="G3062" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3063" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3063" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3063" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3063" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3063" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3064" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3064" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3064" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3064" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3064" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3065" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3065" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3065" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3065" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3065" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3066" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3066" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C3066" s="3">
+        <v>13</v>
+      </c>
+      <c r="D3066" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3066" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3067" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3067" s="3">
+        <v>24</v>
+      </c>
+      <c r="D3067" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3067" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3068" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3068" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3068" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3068" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3068" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3069" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3069" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3069" s="3">
+        <v>32</v>
+      </c>
+      <c r="D3069" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3069" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3070" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3070" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3070" s="3">
+        <v>26</v>
+      </c>
+      <c r="D3070" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3070" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3071" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3071" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3071" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3071" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3071" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3072" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3072" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3072" s="3">
+        <v>36</v>
+      </c>
+      <c r="D3072" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3072" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3073" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3073" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3073" s="3">
+        <v>34</v>
+      </c>
+      <c r="D3073" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3073" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3074" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3074" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3074" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3074" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3074" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3075" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3075" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3075" s="3">
+        <v>21</v>
+      </c>
+      <c r="D3075" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3075" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3076" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3076" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3076" s="3">
+        <v>52</v>
+      </c>
+      <c r="D3076" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3076" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3077" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3077" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3077" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3077" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3077" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3078" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3078" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3078" s="3">
+        <v>13</v>
+      </c>
+      <c r="D3078" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3078" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3079" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3079" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3079" s="3">
+        <v>80</v>
+      </c>
+      <c r="D3079" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3079" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3080" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3080" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3080" s="3">
+        <v>530</v>
+      </c>
+      <c r="D3080" s="3">
+        <v>47</v>
+      </c>
+      <c r="G3080" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3081" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3081" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3081" s="3">
+        <v>44</v>
+      </c>
+      <c r="D3081" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3081" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3082" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3082" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3082" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3082" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3082" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3083" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3083" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3083" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3083" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3083" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3084" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3084" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3084" s="3">
+        <v>16</v>
+      </c>
+      <c r="D3084" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3084" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3085" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3085" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C3085" s="3">
+        <v>38</v>
+      </c>
+      <c r="D3085" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3085" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3086" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3086" s="3">
+        <v>19</v>
+      </c>
+      <c r="D3086" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3086" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3087" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3087" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3087" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3087" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3087" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3088" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3088" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3088" s="3">
+        <v>58</v>
+      </c>
+      <c r="D3088" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3088" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3089" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3089" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3089" s="3">
+        <v>25</v>
+      </c>
+      <c r="D3089" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3089" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3090" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3090" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3090" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3090" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3090" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3091" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3091" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3091" s="3">
+        <v>37</v>
+      </c>
+      <c r="D3091" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3091" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3092" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3092" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3092" s="3">
+        <v>22</v>
+      </c>
+      <c r="D3092" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3092" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3093" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3093" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3093" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3093" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3093" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3094" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3094" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3094" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3094" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3094" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3095" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3095" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3095" s="3">
+        <v>58</v>
+      </c>
+      <c r="D3095" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3095" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3096" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3096" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3096" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3096" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3096" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3097" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3097" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3097" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3097" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3097" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3098" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3098" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3098" s="3">
+        <v>75</v>
+      </c>
+      <c r="D3098" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3098" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3099" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3099" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3099" s="3">
+        <v>701</v>
+      </c>
+      <c r="D3099" s="3">
+        <v>44</v>
+      </c>
+      <c r="G3099" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3100" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3100" s="3">
+        <v>39</v>
+      </c>
+      <c r="D3100" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3100" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3101" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3101" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3101" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3102" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3102" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3102" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3103" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3103" s="3">
+        <v>16</v>
+      </c>
+      <c r="D3103" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3103" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3104" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C3104" s="3">
+        <v>41</v>
+      </c>
+      <c r="D3104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3104" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3105" s="3">
+        <v>26</v>
+      </c>
+      <c r="D3105" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3105" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3106" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3106" s="3">
+        <v>15</v>
+      </c>
+      <c r="D3106" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3106" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3107" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3107" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3107" s="3">
+        <v>38</v>
+      </c>
+      <c r="D3107" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3107" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3108" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3108" s="3">
+        <v>17</v>
+      </c>
+      <c r="D3108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3108" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3109" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3109" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3109" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3110" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3110" s="3">
+        <v>17</v>
+      </c>
+      <c r="D3110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3110" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3111" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3111" s="3">
+        <v>25</v>
+      </c>
+      <c r="D3111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3111" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3112" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3112" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3112" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3112" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3113" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3113" s="3">
+        <v>25</v>
+      </c>
+      <c r="D3113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3113" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3114" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3114" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3114" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3115" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3115" s="3">
+        <v>91</v>
+      </c>
+      <c r="D3115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3115" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3116" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3116" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3116" s="3">
+        <v>394</v>
+      </c>
+      <c r="D3116" s="3">
+        <v>23</v>
+      </c>
+      <c r="G3116" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3117" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3117" s="3">
+        <v>34</v>
+      </c>
+      <c r="D3117" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3117" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3118" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3118" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3119" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3119" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3119" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3119" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3120" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3120" s="3">
+        <v>18</v>
+      </c>
+      <c r="D3120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3120" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3121" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C3121" s="3">
+        <v>21</v>
+      </c>
+      <c r="D3121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3121" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3122" s="3">
+        <v>19</v>
+      </c>
+      <c r="D3122" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3122" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3123" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3123" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3123" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3124" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3124" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3124" s="3">
+        <v>48</v>
+      </c>
+      <c r="D3124" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3124" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3125" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3125" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3125" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3126" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3126" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3126" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3127" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3127" s="3">
+        <v>39</v>
+      </c>
+      <c r="D3127" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3127" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3128" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3128" s="3">
+        <v>54</v>
+      </c>
+      <c r="D3128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3128" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3129" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3129" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3129" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3129" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3129" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3130" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3130" s="3">
+        <v>76</v>
+      </c>
+      <c r="D3130" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3130" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3131" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3131" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3131" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3131" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3132" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3132" s="3">
+        <v>120</v>
+      </c>
+      <c r="D3132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3132" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3133" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3133" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3133" s="3">
+        <v>808</v>
+      </c>
+      <c r="D3133" s="3">
+        <v>52</v>
+      </c>
+      <c r="G3133" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3134" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3134" s="3">
+        <v>34</v>
+      </c>
+      <c r="D3134" s="3">
+        <v>6</v>
+      </c>
+      <c r="G3134" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3135" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3135" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3135" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3135" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3135" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3136" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3136" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3136" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3136" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3136" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3137" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3137" s="3">
+        <v>35</v>
+      </c>
+      <c r="D3137" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3137" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3138" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3138" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3138" s="3">
+        <v>31</v>
+      </c>
+      <c r="D3138" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3138" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3139" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3139" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C3139" s="3">
+        <v>31</v>
+      </c>
+      <c r="D3139" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3139" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3140" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3140" s="3">
+        <v>21</v>
+      </c>
+      <c r="D3140" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3140" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3141" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3141" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3141" s="3">
+        <v>34</v>
+      </c>
+      <c r="D3141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3141" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3142" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3142" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3142" s="3">
+        <v>49</v>
+      </c>
+      <c r="D3142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3142" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3143" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3143" s="3">
+        <v>93</v>
+      </c>
+      <c r="D3143" s="3">
+        <v>8</v>
+      </c>
+      <c r="G3143" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3144" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3144" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3144" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3145" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3145" s="3">
+        <v>41</v>
+      </c>
+      <c r="D3145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3145" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3146" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3146" s="3">
+        <v>29</v>
+      </c>
+      <c r="D3146" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3146" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3147" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3147" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3147" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3147" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3147" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3148" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3148" s="3">
+        <v>61</v>
+      </c>
+      <c r="D3148" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3148" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3149" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3149" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3149" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3149" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3150" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3150" s="3">
+        <v>51</v>
+      </c>
+      <c r="D3150" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3150" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3151" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3151" s="3">
+        <v>52</v>
+      </c>
+      <c r="D3151" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3151" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3152" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3152" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3152" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3152" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3152" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3153" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3153" s="3">
+        <v>38</v>
+      </c>
+      <c r="D3153" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3153" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3154" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3154" s="1">
+        <v>43787</v>
+      </c>
+      <c r="C3154" s="3">
+        <v>16</v>
+      </c>
+      <c r="D3154" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3154" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3155" s="3">
+        <v>55</v>
+      </c>
+      <c r="D3155" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3155" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3156" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3156" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3156" s="3">
+        <v>87</v>
+      </c>
+      <c r="D3156" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3156" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3157" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3157" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3157" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3157" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3157" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3158" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3158" s="3">
+        <v>13</v>
+      </c>
+      <c r="D3158" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3158" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3159" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3159" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3159" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3159" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3160" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3160" s="3">
+        <v>34</v>
+      </c>
+      <c r="D3160" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3160" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3161" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3161" s="3">
+        <v>33</v>
+      </c>
+      <c r="D3161" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3161" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3162" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3162" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3162" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3162" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3163" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3163" s="3">
+        <v>44</v>
+      </c>
+      <c r="D3163" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3163" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3164" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3164" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3164" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3164" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3165" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3165" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3165" s="3">
+        <v>17</v>
+      </c>
+      <c r="D3165" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3165" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3166" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3166" s="3">
+        <v>34</v>
+      </c>
+      <c r="D3166" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3166" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3167" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3167" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3167" s="3">
+        <v>509</v>
+      </c>
+      <c r="D3167" s="3">
+        <v>39</v>
+      </c>
+      <c r="G3167" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3168" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3168" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3168" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3168" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3168" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3169" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3169" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3169" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3169" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3169" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3170" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3170" s="3">
+        <v>34</v>
+      </c>
+      <c r="D3170" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3170" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3171" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3171" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C3171" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3171" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3171" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
